--- a/celiaCombindStats.xlsx
+++ b/celiaCombindStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aizazulhaq/Desktop/RESEARCH/TVA-Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97004CF7-FFF0-DD4C-8E47-4FB08D24CA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5FC135-555B-BE49-BFCB-AE606DA722E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{B07F1FB3-9675-1645-ACE0-8665F21B16D3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>predictionType</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>predictions_Avg.csv</t>
-  </si>
-  <si>
-    <t>predictions_zeroVal.csv</t>
   </si>
   <si>
     <t>predictions_SVR_RBF.csv</t>
@@ -448,13 +445,15 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -497,125 +496,125 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>7.9375586013793894E+51</v>
-      </c>
-      <c r="D2">
-        <v>143649055952.80399</v>
+        <v>35683000000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>143650000000</v>
       </c>
       <c r="E2">
-        <v>5568234.0573325399</v>
+        <v>558543.56799999997</v>
       </c>
       <c r="F2">
-        <v>33578</v>
+        <v>49316</v>
       </c>
       <c r="G2">
-        <v>5468058.9790930301</v>
+        <v>555881.28500000003</v>
       </c>
       <c r="H2">
-        <v>27075</v>
+        <v>2443</v>
       </c>
       <c r="I2">
-        <v>25021</v>
+        <v>49653</v>
       </c>
       <c r="J2">
-        <v>19642</v>
+        <v>49295</v>
       </c>
       <c r="K2">
-        <v>13139</v>
+        <v>2422</v>
       </c>
       <c r="L2">
-        <v>13936</v>
+        <v>21</v>
       </c>
       <c r="M2">
-        <v>5379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>130725230455.368</v>
-      </c>
-      <c r="D3">
-        <v>143648663315.98999</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50152000000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>143650000000</v>
       </c>
       <c r="E3">
-        <v>4433644.6762214201</v>
+        <v>1075697.54</v>
       </c>
       <c r="F3">
-        <v>34109</v>
+        <v>47136</v>
       </c>
       <c r="G3">
-        <v>4332251.2849932704</v>
+        <v>1072504.3500000001</v>
       </c>
       <c r="H3">
-        <v>26809</v>
+        <v>4645</v>
       </c>
       <c r="I3">
-        <v>25287</v>
+        <v>47451</v>
       </c>
       <c r="J3">
-        <v>20024</v>
+        <v>47104</v>
       </c>
       <c r="K3">
-        <v>12724</v>
+        <v>4613</v>
       </c>
       <c r="L3">
-        <v>14085</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>5263</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>137258799179.689</v>
-      </c>
-      <c r="D4">
-        <v>143654347893.21201</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>136760000000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>143700000000</v>
       </c>
       <c r="E4">
-        <v>47373585.700167902</v>
+        <v>5831630.2599999998</v>
       </c>
       <c r="F4">
-        <v>23725</v>
+        <v>33072</v>
       </c>
       <c r="G4">
-        <v>47359496.081025802</v>
+        <v>5829002.0899999999</v>
       </c>
       <c r="H4">
-        <v>18663</v>
+        <v>18809</v>
       </c>
       <c r="I4">
-        <v>33434</v>
+        <v>33287</v>
       </c>
       <c r="J4">
-        <v>22654</v>
+        <v>33054</v>
       </c>
       <c r="K4">
-        <v>17592</v>
+        <v>18791</v>
       </c>
       <c r="L4">
-        <v>1071</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>10780</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -623,204 +622,163 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>1.3410983823540801E+58</v>
-      </c>
-      <c r="D5">
-        <v>143649092634.27301</v>
+        <v>137180000000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>143650000000</v>
       </c>
       <c r="E5">
-        <v>253978.31474343501</v>
+        <v>7379128.8399999999</v>
       </c>
       <c r="F5">
-        <v>52096</v>
+        <v>33527</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>7376500.6699999999</v>
       </c>
       <c r="H5">
-        <v>20666</v>
+        <v>18226</v>
       </c>
       <c r="I5">
-        <v>31430</v>
+        <v>33870</v>
       </c>
       <c r="J5">
-        <v>31430</v>
+        <v>33509</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18208</v>
       </c>
       <c r="L5">
-        <v>20666</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>136760000000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>143700000000</v>
-      </c>
-      <c r="E6">
-        <v>5831630.2599999998</v>
-      </c>
-      <c r="F6">
-        <v>33072</v>
-      </c>
-      <c r="G6">
-        <v>5829002.0899999999</v>
-      </c>
-      <c r="H6">
-        <v>18809</v>
-      </c>
-      <c r="I6">
-        <v>33287</v>
-      </c>
-      <c r="J6">
-        <v>33054</v>
-      </c>
-      <c r="K6">
-        <v>18791</v>
-      </c>
-      <c r="L6">
-        <v>18</v>
-      </c>
-      <c r="M6">
-        <v>233</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>35683000000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>143650000000</v>
+        <v>7.9375586013793894E+51</v>
+      </c>
+      <c r="D7">
+        <v>143649055952.80399</v>
       </c>
       <c r="E7">
-        <v>558543.56799999997</v>
+        <v>5568234.0573325399</v>
       </c>
       <c r="F7">
-        <v>49316</v>
+        <v>33578</v>
       </c>
       <c r="G7">
-        <v>555881.28500000003</v>
+        <v>5468058.9790930301</v>
       </c>
       <c r="H7">
-        <v>2443</v>
+        <v>27075</v>
       </c>
       <c r="I7">
-        <v>49653</v>
+        <v>25021</v>
       </c>
       <c r="J7">
-        <v>49295</v>
+        <v>19642</v>
       </c>
       <c r="K7">
-        <v>2422</v>
+        <v>13139</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>13936</v>
       </c>
       <c r="M7">
-        <v>358</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>50152000000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>143650000000</v>
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>130725230455.368</v>
+      </c>
+      <c r="D8">
+        <v>143648663315.98999</v>
       </c>
       <c r="E8">
-        <v>1075697.54</v>
+        <v>4433644.6762214201</v>
       </c>
       <c r="F8">
-        <v>47136</v>
+        <v>34109</v>
       </c>
       <c r="G8">
-        <v>1072504.3500000001</v>
+        <v>4332251.2849932704</v>
       </c>
       <c r="H8">
-        <v>4645</v>
+        <v>26809</v>
       </c>
       <c r="I8">
-        <v>47451</v>
+        <v>25287</v>
       </c>
       <c r="J8">
-        <v>47104</v>
+        <v>20024</v>
       </c>
       <c r="K8">
-        <v>4613</v>
+        <v>12724</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>14085</v>
       </c>
       <c r="M8">
-        <v>347</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>137180000000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>143650000000</v>
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>137258799179.689</v>
+      </c>
+      <c r="D9">
+        <v>143654347893.21201</v>
       </c>
       <c r="E9">
-        <v>7379128.8399999999</v>
+        <v>47373585.700167902</v>
       </c>
       <c r="F9">
-        <v>33527</v>
+        <v>23725</v>
       </c>
       <c r="G9">
-        <v>7376500.6699999999</v>
+        <v>47359496.081025802</v>
       </c>
       <c r="H9">
-        <v>18226</v>
+        <v>18663</v>
       </c>
       <c r="I9">
-        <v>33870</v>
+        <v>33434</v>
       </c>
       <c r="J9">
-        <v>33509</v>
+        <v>22654</v>
       </c>
       <c r="K9">
-        <v>18208</v>
+        <v>17592</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>1071</v>
       </c>
       <c r="M9">
-        <v>361</v>
+        <v>10780</v>
       </c>
     </row>
   </sheetData>
